--- a/TravisRollsDataset.xlsx
+++ b/TravisRollsDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Bayesian-Adventure-Zone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DBFB1B-B359-4954-BFCA-C4BD98411F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07DA08-4D88-4E68-B568-BD0E817A345C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="2085" windowWidth="18900" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5457,7 +5457,7 @@
         <v>32</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J173" si="2">D132+E132</f>
+        <f t="shared" ref="J132:J172" si="2">D132+E132</f>
         <v>4</v>
       </c>
     </row>

--- a/TravisRollsDataset.xlsx
+++ b/TravisRollsDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Bayesian-Adventure-Zone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07DA08-4D88-4E68-B568-BD0E817A345C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C0EA6-559E-4A78-A994-DB9948ECDF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="2085" windowWidth="18900" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45330" yWindow="705" windowWidth="11130" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TravisRollsDataset" sheetId="1" r:id="rId1"/>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TravisRollsDataset.xlsx
+++ b/TravisRollsDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Bayesian-Adventure-Zone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C0EA6-559E-4A78-A994-DB9948ECDF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA2830-6E57-4305-8C5B-176CAA48C405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45330" yWindow="705" windowWidth="11130" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="19365" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TravisRollsDataset" sheetId="1" r:id="rId1"/>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,25 +1078,25 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="J3">
         <f>D3+E3</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -1114,35 +1114,35 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J67" si="0">D4+E4</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -1150,25 +1150,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1243,14 +1243,14 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1">
         <f>1/20</f>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1280,37 +1280,37 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1320,30 +1320,30 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <f>SUM(M11:M13)</f>
@@ -1362,25 +1362,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -1410,25 +1410,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>33</v>
@@ -1458,25 +1458,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1521,10 +1521,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -1543,25 +1543,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" t="s">
         <v>40</v>
@@ -1582,25 +1582,25 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>38</v>
@@ -1625,25 +1625,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>39</v>
@@ -1668,16 +1668,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -1696,30 +1696,27 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -1734,25 +1731,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -1762,18 +1759,18 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -1788,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
@@ -1800,16 +1797,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>7</v>
@@ -1821,37 +1818,37 @@
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -1861,30 +1858,30 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -1894,30 +1891,30 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
@@ -1927,30 +1924,27 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -1960,24 +1954,24 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1989,7 +1983,7 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -1998,25 +1992,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -2026,30 +2020,27 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -2059,21 +2050,21 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -2092,21 +2083,21 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -2118,37 +2109,34 @@
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
@@ -2158,21 +2146,21 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -2191,30 +2179,30 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H34" t="s">
         <v>32</v>
@@ -2224,30 +2212,30 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
@@ -2257,30 +2245,30 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -2290,63 +2278,63 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
         <v>9</v>
       </c>
-      <c r="D38">
-        <v>19</v>
-      </c>
       <c r="E38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
@@ -2356,18 +2344,18 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>15</v>
@@ -2394,16 +2382,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -2422,21 +2410,21 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -2455,162 +2443,162 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
         <v>32</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D46">
         <v>12</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
@@ -2620,30 +2608,30 @@
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -2653,27 +2641,27 @@
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -2686,90 +2674,90 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>14</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
         <v>32</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2785,126 +2773,126 @@
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="E52">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
         <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>9</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
         <v>32</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>9</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -2917,27 +2905,27 @@
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>9</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -2950,27 +2938,27 @@
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>9</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -2983,30 +2971,30 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -3016,30 +3004,30 @@
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
         <v>9</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
       <c r="D59">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
         <v>32</v>
@@ -3049,30 +3037,30 @@
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -3082,30 +3070,30 @@
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>16</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -3115,30 +3103,27 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
         <v>32</v>
@@ -3148,27 +3133,27 @@
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
         <v>10</v>
@@ -3181,21 +3166,21 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>7</v>
@@ -3214,30 +3199,30 @@
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
         <v>32</v>
@@ -3247,27 +3232,27 @@
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>86</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
         <v>18</v>
       </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>13</v>
-      </c>
       <c r="E66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
@@ -3280,21 +3265,21 @@
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E67">
         <v>7</v>
@@ -3313,27 +3298,27 @@
       </c>
       <c r="J67">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
         <v>17</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s">
-        <v>19</v>
       </c>
       <c r="G68" t="s">
         <v>10</v>
@@ -3346,30 +3331,30 @@
       </c>
       <c r="J68">
         <f t="shared" ref="J68:J131" si="1">D68+E68</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -3379,27 +3364,27 @@
       </c>
       <c r="J69">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
@@ -3408,34 +3393,31 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -3445,30 +3427,30 @@
       </c>
       <c r="J71">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -3478,18 +3460,18 @@
       </c>
       <c r="J72">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>16</v>
@@ -3498,10 +3480,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
@@ -3516,22 +3498,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -3544,30 +3526,27 @@
       </c>
       <c r="J74">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="D75">
-        <v>13</v>
-      </c>
       <c r="E75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -3577,84 +3556,84 @@
       </c>
       <c r="J75">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I76" t="s">
         <v>32</v>
       </c>
       <c r="J76">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I77" t="s">
         <v>32</v>
       </c>
       <c r="J77">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>20</v>
@@ -3663,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
@@ -3681,49 +3660,49 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I79" t="s">
         <v>32</v>
       </c>
       <c r="J79">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>7</v>
@@ -3735,34 +3714,34 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I80" t="s">
         <v>32</v>
       </c>
       <c r="J80">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -3775,21 +3754,21 @@
       </c>
       <c r="J81">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>7</v>
@@ -3808,30 +3787,30 @@
       </c>
       <c r="J82">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>4</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
@@ -3841,30 +3820,30 @@
       </c>
       <c r="J83">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
@@ -3874,30 +3853,30 @@
       </c>
       <c r="J84">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>18</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
@@ -3907,63 +3886,63 @@
       </c>
       <c r="J85">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J86">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
         <v>32</v>
@@ -3973,30 +3952,30 @@
       </c>
       <c r="J87">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -4006,27 +3985,27 @@
       </c>
       <c r="J88">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B89">
         <v>4</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -4039,30 +4018,30 @@
       </c>
       <c r="J89">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E90">
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
@@ -4072,27 +4051,27 @@
       </c>
       <c r="J90">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>4</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>17</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -4105,30 +4084,30 @@
       </c>
       <c r="J91">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B92">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
@@ -4138,30 +4117,27 @@
       </c>
       <c r="J92">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
@@ -4171,12 +4147,12 @@
       </c>
       <c r="J93">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -4185,16 +4161,16 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
@@ -4204,63 +4180,63 @@
       </c>
       <c r="J94">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I95" t="s">
         <v>32</v>
       </c>
       <c r="J95">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
@@ -4270,21 +4246,21 @@
       </c>
       <c r="J96">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B97">
         <v>4</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>7</v>
@@ -4296,37 +4272,37 @@
         <v>10</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I97" t="s">
         <v>32</v>
       </c>
       <c r="J97">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
         <v>32</v>
@@ -4336,30 +4312,30 @@
       </c>
       <c r="J98">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
         <v>32</v>
@@ -4369,30 +4345,30 @@
       </c>
       <c r="J99">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
@@ -4402,27 +4378,27 @@
       </c>
       <c r="J100">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
@@ -4435,30 +4411,30 @@
       </c>
       <c r="J101">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -4468,30 +4444,27 @@
       </c>
       <c r="J102">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B103">
         <v>4</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -4501,30 +4474,30 @@
       </c>
       <c r="J103">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D104">
         <v>12</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
         <v>32</v>
@@ -4534,60 +4507,60 @@
       </c>
       <c r="J104">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I105" t="s">
         <v>32</v>
       </c>
       <c r="J105">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
@@ -4600,30 +4573,27 @@
       </c>
       <c r="J106">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
         <v>32</v>
@@ -4633,30 +4603,30 @@
       </c>
       <c r="J107">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H108" t="s">
         <v>32</v>
@@ -4666,63 +4636,63 @@
       </c>
       <c r="J108">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J109">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
         <v>32</v>
@@ -4732,90 +4702,90 @@
       </c>
       <c r="J110">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H111" t="s">
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J111">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="E112">
+      <c r="G112" t="s">
         <v>8</v>
       </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>10</v>
-      </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J112">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D113">
         <v>19</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -4831,36 +4801,36 @@
       </c>
       <c r="J113">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I114" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J114">
         <f t="shared" si="1"/>
@@ -4869,25 +4839,25 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
         <v>32</v>
@@ -4897,30 +4867,30 @@
       </c>
       <c r="J115">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
         <v>32</v>
@@ -4930,30 +4900,30 @@
       </c>
       <c r="J116">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
         <v>32</v>
@@ -4963,27 +4933,27 @@
       </c>
       <c r="J117">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G118" t="s">
         <v>10</v>
@@ -4996,27 +4966,27 @@
       </c>
       <c r="J118">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G119" t="s">
         <v>10</v>
@@ -5029,27 +4999,27 @@
       </c>
       <c r="J119">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G120" t="s">
         <v>10</v>
@@ -5062,30 +5032,30 @@
       </c>
       <c r="J120">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>15</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H121" t="s">
         <v>32</v>
@@ -5095,30 +5065,30 @@
       </c>
       <c r="J121">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
         <v>32</v>
@@ -5128,30 +5098,30 @@
       </c>
       <c r="J122">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
         <v>32</v>
@@ -5161,30 +5131,30 @@
       </c>
       <c r="J123">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
         <v>32</v>
@@ -5194,54 +5164,54 @@
       </c>
       <c r="J124">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E125">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G125" t="s">
         <v>10</v>
       </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I125" t="s">
         <v>32</v>
       </c>
       <c r="J125">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5260,27 +5230,27 @@
       </c>
       <c r="J126">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
@@ -5293,30 +5263,30 @@
       </c>
       <c r="J127">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -5326,27 +5296,27 @@
       </c>
       <c r="J128">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
         <v>8</v>
@@ -5359,30 +5329,30 @@
       </c>
       <c r="J129">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H130" t="s">
         <v>32</v>
@@ -5392,30 +5362,30 @@
       </c>
       <c r="J130">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G131" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -5425,30 +5395,27 @@
       </c>
       <c r="J131">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>7</v>
-      </c>
-      <c r="G132" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H132" t="s">
         <v>32</v>
@@ -5458,30 +5425,30 @@
       </c>
       <c r="J132">
         <f t="shared" ref="J132:J172" si="2">D132+E132</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
         <v>32</v>
@@ -5491,30 +5458,30 @@
       </c>
       <c r="J133">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D134">
+        <v>8</v>
+      </c>
+      <c r="E134">
         <v>9</v>
       </c>
-      <c r="E134">
-        <v>2</v>
-      </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
         <v>32</v>
@@ -5524,162 +5491,162 @@
       </c>
       <c r="J134">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I135" t="s">
         <v>32</v>
       </c>
       <c r="J135">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I136" t="s">
         <v>32</v>
       </c>
       <c r="J136">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C137">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E137">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I137" t="s">
         <v>32</v>
       </c>
       <c r="J137">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C138">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I138" t="s">
         <v>32</v>
       </c>
       <c r="J138">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
         <v>1</v>
       </c>
-      <c r="D139">
-        <v>12</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H139" t="s">
         <v>32</v>
@@ -5689,30 +5656,30 @@
       </c>
       <c r="J139">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>13</v>
+      </c>
+      <c r="E140">
         <v>1</v>
       </c>
-      <c r="D140">
-        <v>13</v>
-      </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H140" t="s">
         <v>32</v>
@@ -5722,30 +5689,30 @@
       </c>
       <c r="J140">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G141" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
         <v>32</v>
@@ -5755,96 +5722,96 @@
       </c>
       <c r="J141">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
       <c r="D142">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I142" t="s">
         <v>32</v>
       </c>
       <c r="J142">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I143" t="s">
         <v>32</v>
       </c>
       <c r="J143">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G144" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H144" t="s">
         <v>32</v>
@@ -5854,30 +5821,30 @@
       </c>
       <c r="J144">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H145" t="s">
         <v>32</v>
@@ -5887,30 +5854,30 @@
       </c>
       <c r="J145">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>4</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H146" t="s">
         <v>32</v>
@@ -5920,30 +5887,30 @@
       </c>
       <c r="J146">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147">
+        <v>13</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
         <v>17</v>
       </c>
-      <c r="E147">
-        <v>2</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
       <c r="G147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H147" t="s">
         <v>32</v>
@@ -5953,30 +5920,30 @@
       </c>
       <c r="J147">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H148" t="s">
         <v>32</v>
@@ -5986,30 +5953,30 @@
       </c>
       <c r="J148">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H149" t="s">
         <v>32</v>
@@ -6019,63 +5986,63 @@
       </c>
       <c r="J149">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I150" t="s">
         <v>32</v>
       </c>
       <c r="J150">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H151" t="s">
         <v>32</v>
@@ -6085,129 +6052,126 @@
       </c>
       <c r="J151">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H152" t="s">
         <v>32</v>
       </c>
       <c r="I152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J152">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J153">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
-      </c>
-      <c r="G154" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I154" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J154">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
         <v>32</v>
@@ -6217,30 +6181,30 @@
       </c>
       <c r="J155">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>12</v>
+      </c>
+      <c r="E156">
         <v>1</v>
       </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156">
-        <v>2</v>
-      </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G156" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H156" t="s">
         <v>32</v>
@@ -6250,30 +6214,27 @@
       </c>
       <c r="J156">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H157" t="s">
         <v>32</v>
@@ -6283,30 +6244,30 @@
       </c>
       <c r="J157">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B158">
         <v>5</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
         <v>32</v>
@@ -6316,30 +6277,30 @@
       </c>
       <c r="J158">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>17</v>
+      </c>
+      <c r="E159">
         <v>9</v>
       </c>
-      <c r="D159">
-        <v>13</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
-      </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
         <v>32</v>
@@ -6349,27 +6310,30 @@
       </c>
       <c r="J159">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
       </c>
       <c r="H160" t="s">
         <v>32</v>
@@ -6379,27 +6343,30 @@
       </c>
       <c r="J160">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161">
+        <v>16</v>
+      </c>
+      <c r="E161">
         <v>9</v>
       </c>
-      <c r="E161">
-        <v>2</v>
-      </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
       </c>
       <c r="H161" t="s">
         <v>32</v>
@@ -6409,27 +6376,30 @@
       </c>
       <c r="J161">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
       </c>
       <c r="H162" t="s">
         <v>32</v>
@@ -6439,57 +6409,63 @@
       </c>
       <c r="J162">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>7</v>
       </c>
       <c r="D163">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I163" t="s">
         <v>32</v>
       </c>
       <c r="J163">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C164">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>18</v>
+      </c>
+      <c r="E164">
         <v>1</v>
       </c>
-      <c r="D164">
-        <v>14</v>
-      </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>10</v>
       </c>
       <c r="H164" t="s">
         <v>32</v>
@@ -6499,27 +6475,30 @@
       </c>
       <c r="J164">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D165">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E165">
         <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
       </c>
       <c r="H165" t="s">
         <v>32</v>
@@ -6529,27 +6508,30 @@
       </c>
       <c r="J165">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
         <v>8</v>
-      </c>
-      <c r="E166">
-        <v>2</v>
-      </c>
-      <c r="F166" t="s">
-        <v>18</v>
       </c>
       <c r="H166" t="s">
         <v>32</v>
@@ -6559,27 +6541,30 @@
       </c>
       <c r="J166">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
       </c>
       <c r="H167" t="s">
         <v>32</v>
@@ -6589,27 +6574,30 @@
       </c>
       <c r="J167">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
         <v>8</v>
       </c>
-      <c r="D168">
-        <v>8</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
       <c r="F168" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
       </c>
       <c r="H168" t="s">
         <v>32</v>
@@ -6619,27 +6607,30 @@
       </c>
       <c r="J168">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C169">
         <v>9</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
       </c>
       <c r="H169" t="s">
         <v>32</v>
@@ -6649,27 +6640,30 @@
       </c>
       <c r="J169">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B170">
         <v>5</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
       </c>
       <c r="H170" t="s">
         <v>32</v>
@@ -6679,18 +6673,18 @@
       </c>
       <c r="J170">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B171">
         <v>5</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D171">
         <v>13</v>
@@ -6699,7 +6693,10 @@
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8</v>
       </c>
       <c r="H171" t="s">
         <v>32</v>
@@ -6714,22 +6711,25 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B172">
         <v>5</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D172">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
       </c>
       <c r="H172" t="s">
         <v>32</v>
@@ -6739,13 +6739,13 @@
       </c>
       <c r="J172">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I173" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I173">
-      <sortCondition ref="G2:G173"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I172">
+      <sortCondition ref="A2:A173"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TravisRollsDataset.xlsx
+++ b/TravisRollsDataset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Bayesian-Adventure-Zone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA2830-6E57-4305-8C5B-176CAA48C405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186A97D-4246-46ED-B858-5E2D6343D232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="19365" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="1470" windowWidth="18480" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TravisRollsDataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TravisRollsDataset!$A$2:$I$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TravisRollsDataset!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="53">
   <si>
     <t>season</t>
   </si>
@@ -160,6 +160,39 @@
   </si>
   <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>INIT</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
 </sst>
 </file>
@@ -648,13 +681,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1011,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1067,15 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>37</v>
       </c>
@@ -1046,8 +1088,12 @@
       <c r="H1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <f>SUM(K3:K172)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1072,11 +1118,29 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1104,15 +1168,33 @@
       <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="J3">
-        <f>D3+E3</f>
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <f>IF(OR(J3="ATTACK", H3="disadvantage"), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="6">
+        <f>COUNTIF(J:J,M3)</f>
+        <v>7</v>
+      </c>
+      <c r="O3" s="6">
+        <f>COUNTIFS($J:$J,$M3,$H:$H,O$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P10" si="0">COUNTIFS($J:$J,$M3,$H:$H,P$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1140,15 +1222,33 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">D4+E4</f>
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="1">IF(OR(J4="ATTACK", H4="disadvantage"), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N10" si="2">COUNTIF(J:J,M4)</f>
+        <v>29</v>
+      </c>
+      <c r="O4" s="6">
+        <f>COUNTIFS($J:$J,$M4,$H:$H,O$2)</f>
+        <v>12</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1176,15 +1276,33 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="6">
+        <f>COUNTIFS($J:$J,$M5,$H:$H,O$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1212,15 +1330,33 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O6" s="6">
+        <f>COUNTIFS($J:$J,$M6,$H:$H,O$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1248,16 +1384,34 @@
       <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="6">
+        <f>COUNTIFS($J:$J,$M7,$H:$H,O$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1">
         <f>1/20</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1285,12 +1439,30 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O8" s="6">
+        <f>COUNTIFS($J:$J,$M8,$H:$H,O$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1318,12 +1490,30 @@
       <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O9" s="6">
+        <f>COUNTIFS($J:$J,$M9,$H:$H,O$2)</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1351,16 +1541,34 @@
       <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="O10" s="6">
+        <f>COUNTIFS($J:$J,$M10,$H:$H,O$2)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <f>SUM(M11:M13)</f>
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <f>SUM(S11:S13)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1388,27 +1596,30 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11">
-        <f>COUNTIF(H:H,L11)</f>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11">
+        <f>COUNTIF(H:H,R11)</f>
         <v>151</v>
       </c>
-      <c r="N11" s="2">
-        <f>M11/$M$10</f>
+      <c r="T11" s="2">
+        <f>S11/$S$10</f>
         <v>0.88823529411764701</v>
       </c>
-      <c r="O11" s="3">
-        <f>AVERAGE(N12:N13)</f>
+      <c r="U11" s="3">
+        <f>AVERAGE(T12:T13)</f>
         <v>5.5882352941176473E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1436,27 +1647,30 @@
       <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>33</v>
       </c>
-      <c r="M12">
-        <f>COUNTIF(H:H,L12)</f>
+      <c r="S12">
+        <f>COUNTIF(H:H,R12)</f>
         <v>15</v>
       </c>
-      <c r="N12" s="2">
-        <f>M12/$M$10</f>
+      <c r="T12" s="2">
+        <f>S12/$S$10</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="O12" s="3">
-        <f>$O$11-N12</f>
+      <c r="U12" s="3">
+        <f>$U$11-T12</f>
         <v>-3.2352941176470591E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1484,27 +1698,30 @@
       <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>31</v>
       </c>
-      <c r="M13">
-        <f>COUNTIF(H:H,L13)</f>
-        <v>4</v>
-      </c>
-      <c r="N13" s="2">
-        <f>M13/$M$10</f>
+      <c r="S13">
+        <f>COUNTIF(H:H,R13)</f>
+        <v>4</v>
+      </c>
+      <c r="T13" s="2">
+        <f>S13/$S$10</f>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="O13" s="3">
-        <f>$O$11-N13</f>
+      <c r="U13" s="3">
+        <f>$U$11-T13</f>
         <v>3.2352941176470591E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1532,16 +1749,19 @@
       <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N14" s="3">
-        <f>SUM(N12:N13)</f>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <f>SUM(T12:T13)</f>
         <v>0.11176470588235295</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1569,18 +1789,21 @@
       <c r="I15" t="s">
         <v>32</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="U15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1608,22 +1831,25 @@
       <c r="I16" t="s">
         <v>32</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N16">
+      <c r="T16">
         <v>0.05</v>
       </c>
-      <c r="O16" s="5">
-        <f>N16*(1+$O$12)</f>
+      <c r="U16" s="5">
+        <f>T16*(1+$U$12)</f>
         <v>4.8382352941176474E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1651,22 +1877,25 @@
       <c r="I17" t="s">
         <v>32</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N17">
+      <c r="T17">
         <v>0.05</v>
       </c>
-      <c r="O17" s="5">
-        <f>N17*(1+$O$13)</f>
+      <c r="U17" s="5">
+        <f>T17*(1+$U$13)</f>
         <v>5.1617647058823539E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1694,12 +1923,15 @@
       <c r="I18" t="s">
         <v>32</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1724,12 +1956,15 @@
       <c r="I19" t="s">
         <v>32</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -1757,12 +1992,15 @@
       <c r="I20" t="s">
         <v>32</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -1790,12 +2028,15 @@
       <c r="I21" t="s">
         <v>32</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1823,12 +2064,15 @@
       <c r="I22" t="s">
         <v>32</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
@@ -1856,12 +2100,15 @@
       <c r="I23" t="s">
         <v>32</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1889,12 +2136,15 @@
       <c r="I24" t="s">
         <v>32</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1922,12 +2172,15 @@
       <c r="I25" t="s">
         <v>32</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
@@ -1952,12 +2205,15 @@
       <c r="I26" t="s">
         <v>32</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -1985,12 +2241,15 @@
       <c r="I27" t="s">
         <v>32</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
@@ -2018,12 +2277,15 @@
       <c r="I28" t="s">
         <v>32</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>36</v>
       </c>
@@ -2048,12 +2310,15 @@
       <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>37</v>
       </c>
@@ -2081,12 +2346,15 @@
       <c r="I30" t="s">
         <v>32</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>38</v>
       </c>
@@ -2114,12 +2382,15 @@
       <c r="I31" t="s">
         <v>32</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
@@ -2144,12 +2415,15 @@
       <c r="I32" t="s">
         <v>32</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>41</v>
       </c>
@@ -2177,12 +2451,15 @@
       <c r="I33" t="s">
         <v>32</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>42</v>
       </c>
@@ -2210,12 +2487,15 @@
       <c r="I34" t="s">
         <v>32</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>43</v>
       </c>
@@ -2243,12 +2523,15 @@
       <c r="I35" t="s">
         <v>32</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>44</v>
       </c>
@@ -2276,12 +2559,15 @@
       <c r="I36" t="s">
         <v>32</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
@@ -2309,12 +2595,15 @@
       <c r="I37" t="s">
         <v>32</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>46</v>
       </c>
@@ -2342,12 +2631,15 @@
       <c r="I38" t="s">
         <v>32</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
@@ -2375,12 +2667,15 @@
       <c r="I39" t="s">
         <v>32</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>48</v>
       </c>
@@ -2408,12 +2703,15 @@
       <c r="I40" t="s">
         <v>32</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>49</v>
       </c>
@@ -2441,12 +2739,15 @@
       <c r="I41" t="s">
         <v>32</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50</v>
       </c>
@@ -2474,12 +2775,15 @@
       <c r="I42" t="s">
         <v>32</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51</v>
       </c>
@@ -2507,12 +2811,15 @@
       <c r="I43" t="s">
         <v>32</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>53</v>
       </c>
@@ -2540,12 +2847,15 @@
       <c r="I44" t="s">
         <v>32</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>54</v>
       </c>
@@ -2573,12 +2883,15 @@
       <c r="I45" t="s">
         <v>32</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>55</v>
       </c>
@@ -2606,12 +2919,15 @@
       <c r="I46" t="s">
         <v>32</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>56</v>
       </c>
@@ -2639,12 +2955,15 @@
       <c r="I47" t="s">
         <v>32</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -2672,12 +2991,15 @@
       <c r="I48" t="s">
         <v>32</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>58</v>
       </c>
@@ -2705,12 +3027,15 @@
       <c r="I49" t="s">
         <v>32</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59</v>
       </c>
@@ -2738,12 +3063,15 @@
       <c r="I50" t="s">
         <v>32</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>60</v>
       </c>
@@ -2771,12 +3099,15 @@
       <c r="I51" t="s">
         <v>32</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>62</v>
       </c>
@@ -2804,12 +3135,15 @@
       <c r="I52" t="s">
         <v>36</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>63</v>
       </c>
@@ -2837,12 +3171,15 @@
       <c r="I53" t="s">
         <v>32</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>64</v>
       </c>
@@ -2870,12 +3207,15 @@
       <c r="I54" t="s">
         <v>32</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>65</v>
       </c>
@@ -2903,12 +3243,15 @@
       <c r="I55" t="s">
         <v>32</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>66</v>
       </c>
@@ -2936,12 +3279,15 @@
       <c r="I56" t="s">
         <v>32</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>67</v>
       </c>
@@ -2969,12 +3315,15 @@
       <c r="I57" t="s">
         <v>32</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>68</v>
       </c>
@@ -3002,12 +3351,15 @@
       <c r="I58" t="s">
         <v>32</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>69</v>
       </c>
@@ -3035,12 +3387,15 @@
       <c r="I59" t="s">
         <v>32</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>71</v>
       </c>
@@ -3068,12 +3423,15 @@
       <c r="I60" t="s">
         <v>32</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>72</v>
       </c>
@@ -3101,12 +3459,15 @@
       <c r="I61" t="s">
         <v>32</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>73</v>
       </c>
@@ -3131,12 +3492,15 @@
       <c r="I62" t="s">
         <v>32</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>74</v>
       </c>
@@ -3164,12 +3528,15 @@
       <c r="I63" t="s">
         <v>32</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>75</v>
       </c>
@@ -3197,12 +3564,15 @@
       <c r="I64" t="s">
         <v>32</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>76</v>
       </c>
@@ -3230,12 +3600,15 @@
       <c r="I65" t="s">
         <v>32</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>50</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>86</v>
       </c>
@@ -3263,12 +3636,15 @@
       <c r="I66" t="s">
         <v>32</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -3296,12 +3672,15 @@
       <c r="I67" t="s">
         <v>32</v>
       </c>
-      <c r="J67">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -3329,12 +3708,15 @@
       <c r="I68" t="s">
         <v>32</v>
       </c>
-      <c r="J68">
-        <f t="shared" ref="J68:J131" si="1">D68+E68</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K131" si="3">IF(OR(J68="ATTACK", H68="disadvantage"), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -3362,12 +3744,15 @@
       <c r="I69" t="s">
         <v>32</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>91</v>
       </c>
@@ -3395,12 +3780,15 @@
       <c r="I70" t="s">
         <v>36</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>92</v>
       </c>
@@ -3425,12 +3813,15 @@
       <c r="I71" t="s">
         <v>32</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>49</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>93</v>
       </c>
@@ -3458,12 +3849,15 @@
       <c r="I72" t="s">
         <v>32</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>50</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>94</v>
       </c>
@@ -3491,12 +3885,15 @@
       <c r="I73" t="s">
         <v>32</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>96</v>
       </c>
@@ -3524,12 +3921,15 @@
       <c r="I74" t="s">
         <v>32</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>97</v>
       </c>
@@ -3554,12 +3954,15 @@
       <c r="I75" t="s">
         <v>32</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>98</v>
       </c>
@@ -3587,12 +3990,15 @@
       <c r="I76" t="s">
         <v>32</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -3620,12 +4026,15 @@
       <c r="I77" t="s">
         <v>32</v>
       </c>
-      <c r="J77">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>50</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -3653,12 +4062,15 @@
       <c r="I78" t="s">
         <v>36</v>
       </c>
-      <c r="J78">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>50</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>101</v>
       </c>
@@ -3686,12 +4098,15 @@
       <c r="I79" t="s">
         <v>32</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>102</v>
       </c>
@@ -3719,12 +4134,15 @@
       <c r="I80" t="s">
         <v>32</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>103</v>
       </c>
@@ -3752,12 +4170,15 @@
       <c r="I81" t="s">
         <v>32</v>
       </c>
-      <c r="J81">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>104</v>
       </c>
@@ -3785,12 +4206,15 @@
       <c r="I82" t="s">
         <v>32</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>105</v>
       </c>
@@ -3818,12 +4242,15 @@
       <c r="I83" t="s">
         <v>32</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>43</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>106</v>
       </c>
@@ -3851,12 +4278,15 @@
       <c r="I84" t="s">
         <v>32</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>107</v>
       </c>
@@ -3884,12 +4314,15 @@
       <c r="I85" t="s">
         <v>32</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>50</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>108</v>
       </c>
@@ -3917,12 +4350,15 @@
       <c r="I86" t="s">
         <v>32</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>110</v>
       </c>
@@ -3950,12 +4386,15 @@
       <c r="I87" t="s">
         <v>32</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>111</v>
       </c>
@@ -3983,12 +4422,15 @@
       <c r="I88" t="s">
         <v>32</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -4016,12 +4458,15 @@
       <c r="I89" t="s">
         <v>32</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>115</v>
       </c>
@@ -4049,12 +4494,15 @@
       <c r="I90" t="s">
         <v>32</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>50</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>117</v>
       </c>
@@ -4082,12 +4530,15 @@
       <c r="I91" t="s">
         <v>32</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>119</v>
       </c>
@@ -4115,12 +4566,15 @@
       <c r="I92" t="s">
         <v>32</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>43</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>121</v>
       </c>
@@ -4145,12 +4599,15 @@
       <c r="I93" t="s">
         <v>32</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122</v>
       </c>
@@ -4178,12 +4635,15 @@
       <c r="I94" t="s">
         <v>32</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>123</v>
       </c>
@@ -4211,12 +4671,15 @@
       <c r="I95" t="s">
         <v>32</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>124</v>
       </c>
@@ -4244,12 +4707,15 @@
       <c r="I96" t="s">
         <v>32</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>50</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>125</v>
       </c>
@@ -4277,12 +4743,15 @@
       <c r="I97" t="s">
         <v>32</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>126</v>
       </c>
@@ -4310,12 +4779,15 @@
       <c r="I98" t="s">
         <v>32</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>128</v>
       </c>
@@ -4343,12 +4815,15 @@
       <c r="I99" t="s">
         <v>32</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>50</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>129</v>
       </c>
@@ -4376,12 +4851,15 @@
       <c r="I100" t="s">
         <v>32</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>50</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>130</v>
       </c>
@@ -4409,12 +4887,15 @@
       <c r="I101" t="s">
         <v>32</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>131</v>
       </c>
@@ -4442,12 +4923,15 @@
       <c r="I102" t="s">
         <v>32</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>133</v>
       </c>
@@ -4472,12 +4956,15 @@
       <c r="I103" t="s">
         <v>32</v>
       </c>
-      <c r="J103">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>134</v>
       </c>
@@ -4505,12 +4992,15 @@
       <c r="I104" t="s">
         <v>32</v>
       </c>
-      <c r="J104">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>50</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>135</v>
       </c>
@@ -4538,12 +5028,15 @@
       <c r="I105" t="s">
         <v>32</v>
       </c>
-      <c r="J105">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>137</v>
       </c>
@@ -4571,12 +5064,15 @@
       <c r="I106" t="s">
         <v>32</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>140</v>
       </c>
@@ -4601,12 +5097,15 @@
       <c r="I107" t="s">
         <v>32</v>
       </c>
-      <c r="J107">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>141</v>
       </c>
@@ -4634,12 +5133,15 @@
       <c r="I108" t="s">
         <v>32</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>142</v>
       </c>
@@ -4667,12 +5169,15 @@
       <c r="I109" t="s">
         <v>35</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>50</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>143</v>
       </c>
@@ -4700,12 +5205,15 @@
       <c r="I110" t="s">
         <v>32</v>
       </c>
-      <c r="J110">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>50</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>144</v>
       </c>
@@ -4733,12 +5241,15 @@
       <c r="I111" t="s">
         <v>35</v>
       </c>
-      <c r="J111">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>145</v>
       </c>
@@ -4766,12 +5277,15 @@
       <c r="I112" t="s">
         <v>35</v>
       </c>
-      <c r="J112">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>147</v>
       </c>
@@ -4799,12 +5313,15 @@
       <c r="I113" t="s">
         <v>32</v>
       </c>
-      <c r="J113">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>149</v>
       </c>
@@ -4832,12 +5349,15 @@
       <c r="I114" t="s">
         <v>36</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>150</v>
       </c>
@@ -4865,12 +5385,15 @@
       <c r="I115" t="s">
         <v>32</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>50</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>151</v>
       </c>
@@ -4898,12 +5421,15 @@
       <c r="I116" t="s">
         <v>32</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>50</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>152</v>
       </c>
@@ -4931,12 +5457,15 @@
       <c r="I117" t="s">
         <v>32</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>50</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>155</v>
       </c>
@@ -4964,12 +5493,15 @@
       <c r="I118" t="s">
         <v>32</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>48</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>156</v>
       </c>
@@ -4997,12 +5529,15 @@
       <c r="I119" t="s">
         <v>32</v>
       </c>
-      <c r="J119">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>157</v>
       </c>
@@ -5030,12 +5565,15 @@
       <c r="I120" t="s">
         <v>32</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>158</v>
       </c>
@@ -5063,12 +5601,15 @@
       <c r="I121" t="s">
         <v>32</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>43</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>159</v>
       </c>
@@ -5096,12 +5637,15 @@
       <c r="I122" t="s">
         <v>32</v>
       </c>
-      <c r="J122">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>50</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>160</v>
       </c>
@@ -5129,12 +5673,15 @@
       <c r="I123" t="s">
         <v>32</v>
       </c>
-      <c r="J123">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>50</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>161</v>
       </c>
@@ -5162,12 +5709,15 @@
       <c r="I124" t="s">
         <v>32</v>
       </c>
-      <c r="J124">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>50</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>162</v>
       </c>
@@ -5195,12 +5745,15 @@
       <c r="I125" t="s">
         <v>32</v>
       </c>
-      <c r="J125">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>48</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>163</v>
       </c>
@@ -5228,12 +5781,15 @@
       <c r="I126" t="s">
         <v>32</v>
       </c>
-      <c r="J126">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>48</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>164</v>
       </c>
@@ -5261,12 +5817,15 @@
       <c r="I127" t="s">
         <v>32</v>
       </c>
-      <c r="J127">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>165</v>
       </c>
@@ -5294,12 +5853,15 @@
       <c r="I128" t="s">
         <v>32</v>
       </c>
-      <c r="J128">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>50</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>166</v>
       </c>
@@ -5327,12 +5889,15 @@
       <c r="I129" t="s">
         <v>32</v>
       </c>
-      <c r="J129">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>43</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>168</v>
       </c>
@@ -5360,12 +5925,15 @@
       <c r="I130" t="s">
         <v>32</v>
       </c>
-      <c r="J130">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>43</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>169</v>
       </c>
@@ -5393,12 +5961,15 @@
       <c r="I131" t="s">
         <v>32</v>
       </c>
-      <c r="J131">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>48</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>175</v>
       </c>
@@ -5423,12 +5994,15 @@
       <c r="I132" t="s">
         <v>32</v>
       </c>
-      <c r="J132">
-        <f t="shared" ref="J132:J172" si="2">D132+E132</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>49</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K172" si="4">IF(OR(J132="ATTACK", H132="disadvantage"), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>176</v>
       </c>
@@ -5456,12 +6030,15 @@
       <c r="I133" t="s">
         <v>32</v>
       </c>
-      <c r="J133">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>177</v>
       </c>
@@ -5489,12 +6066,15 @@
       <c r="I134" t="s">
         <v>32</v>
       </c>
-      <c r="J134">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>179</v>
       </c>
@@ -5522,12 +6102,15 @@
       <c r="I135" t="s">
         <v>32</v>
       </c>
-      <c r="J135">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>48</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>180</v>
       </c>
@@ -5555,12 +6138,15 @@
       <c r="I136" t="s">
         <v>32</v>
       </c>
-      <c r="J136">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>43</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>181</v>
       </c>
@@ -5588,12 +6174,12 @@
       <c r="I137" t="s">
         <v>32</v>
       </c>
-      <c r="J137">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>182</v>
       </c>
@@ -5621,12 +6207,15 @@
       <c r="I138" t="s">
         <v>32</v>
       </c>
-      <c r="J138">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>183</v>
       </c>
@@ -5654,12 +6243,15 @@
       <c r="I139" t="s">
         <v>32</v>
       </c>
-      <c r="J139">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>46</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>184</v>
       </c>
@@ -5687,12 +6279,15 @@
       <c r="I140" t="s">
         <v>32</v>
       </c>
-      <c r="J140">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>46</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>186</v>
       </c>
@@ -5720,12 +6315,15 @@
       <c r="I141" t="s">
         <v>32</v>
       </c>
-      <c r="J141">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>187</v>
       </c>
@@ -5753,12 +6351,15 @@
       <c r="I142" t="s">
         <v>32</v>
       </c>
-      <c r="J142">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>45</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>188</v>
       </c>
@@ -5786,12 +6387,15 @@
       <c r="I143" t="s">
         <v>32</v>
       </c>
-      <c r="J143">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>45</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>190</v>
       </c>
@@ -5819,12 +6423,15 @@
       <c r="I144" t="s">
         <v>32</v>
       </c>
-      <c r="J144">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>48</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>191</v>
       </c>
@@ -5852,12 +6459,12 @@
       <c r="I145" t="s">
         <v>32</v>
       </c>
-      <c r="J145">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>192</v>
       </c>
@@ -5885,12 +6492,15 @@
       <c r="I146" t="s">
         <v>32</v>
       </c>
-      <c r="J146">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>44</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>193</v>
       </c>
@@ -5918,12 +6528,15 @@
       <c r="I147" t="s">
         <v>32</v>
       </c>
-      <c r="J147">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>46</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>194</v>
       </c>
@@ -5951,12 +6564,12 @@
       <c r="I148" t="s">
         <v>32</v>
       </c>
-      <c r="J148">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>196</v>
       </c>
@@ -5984,12 +6597,15 @@
       <c r="I149" t="s">
         <v>32</v>
       </c>
-      <c r="J149">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>46</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>197</v>
       </c>
@@ -6017,12 +6633,15 @@
       <c r="I150" t="s">
         <v>32</v>
       </c>
-      <c r="J150">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>44</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>198</v>
       </c>
@@ -6050,12 +6669,15 @@
       <c r="I151" t="s">
         <v>32</v>
       </c>
-      <c r="J151">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>48</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>199</v>
       </c>
@@ -6083,12 +6705,15 @@
       <c r="I152" t="s">
         <v>32</v>
       </c>
-      <c r="J152">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>44</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>201</v>
       </c>
@@ -6116,12 +6741,15 @@
       <c r="I153" t="s">
         <v>32</v>
       </c>
-      <c r="J153">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>46</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>202</v>
       </c>
@@ -6146,12 +6774,15 @@
       <c r="I154" t="s">
         <v>32</v>
       </c>
-      <c r="J154">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>203</v>
       </c>
@@ -6179,12 +6810,15 @@
       <c r="I155" t="s">
         <v>32</v>
       </c>
-      <c r="J155">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>50</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>204</v>
       </c>
@@ -6212,12 +6846,15 @@
       <c r="I156" t="s">
         <v>32</v>
       </c>
-      <c r="J156">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>48</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>205</v>
       </c>
@@ -6242,12 +6879,15 @@
       <c r="I157" t="s">
         <v>32</v>
       </c>
-      <c r="J157">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>206</v>
       </c>
@@ -6275,12 +6915,15 @@
       <c r="I158" t="s">
         <v>32</v>
       </c>
-      <c r="J158">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>50</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>207</v>
       </c>
@@ -6308,12 +6951,15 @@
       <c r="I159" t="s">
         <v>32</v>
       </c>
-      <c r="J159">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>50</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>208</v>
       </c>
@@ -6341,12 +6987,15 @@
       <c r="I160" t="s">
         <v>32</v>
       </c>
-      <c r="J160">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>50</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>209</v>
       </c>
@@ -6374,12 +7023,15 @@
       <c r="I161" t="s">
         <v>32</v>
       </c>
-      <c r="J161">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>50</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>212</v>
       </c>
@@ -6407,12 +7059,15 @@
       <c r="I162" t="s">
         <v>32</v>
       </c>
-      <c r="J162">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>43</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>213</v>
       </c>
@@ -6440,12 +7095,15 @@
       <c r="I163" t="s">
         <v>32</v>
       </c>
-      <c r="J163">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>45</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>214</v>
       </c>
@@ -6473,12 +7131,15 @@
       <c r="I164" t="s">
         <v>32</v>
       </c>
-      <c r="J164">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>48</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>215</v>
       </c>
@@ -6506,12 +7167,15 @@
       <c r="I165" t="s">
         <v>32</v>
       </c>
-      <c r="J165">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>43</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>216</v>
       </c>
@@ -6539,12 +7203,15 @@
       <c r="I166" t="s">
         <v>32</v>
       </c>
-      <c r="J166">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>43</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>220</v>
       </c>
@@ -6572,12 +7239,15 @@
       <c r="I167" t="s">
         <v>32</v>
       </c>
-      <c r="J167">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>47</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>221</v>
       </c>
@@ -6605,12 +7275,15 @@
       <c r="I168" t="s">
         <v>32</v>
       </c>
-      <c r="J168">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>50</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>222</v>
       </c>
@@ -6638,12 +7311,15 @@
       <c r="I169" t="s">
         <v>32</v>
       </c>
-      <c r="J169">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>50</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>223</v>
       </c>
@@ -6671,12 +7347,15 @@
       <c r="I170" t="s">
         <v>32</v>
       </c>
-      <c r="J170">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>50</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>224</v>
       </c>
@@ -6704,12 +7383,15 @@
       <c r="I171" t="s">
         <v>32</v>
       </c>
-      <c r="J171">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>43</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>225</v>
       </c>
@@ -6737,17 +7419,15 @@
       <c r="I172" t="s">
         <v>32</v>
       </c>
-      <c r="J172">
-        <f t="shared" si="2"/>
-        <v>28</v>
+      <c r="J172" t="s">
+        <v>50</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I173" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I172">
-      <sortCondition ref="A2:A173"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
